--- a/HR_Web/public_html/WEB-INF/resources/template.xlsx
+++ b/HR_Web/public_html/WEB-INF/resources/template.xlsx
@@ -46,7 +46,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -353,7 +353,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
